--- a/chart_store/chart_store_segment1.xlsx
+++ b/chart_store/chart_store_segment1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="184">
   <si>
     <t>exchange</t>
   </si>
@@ -568,816 +568,6 @@
   </si>
   <si>
     <t>MAHSCOOTER</t>
-  </si>
-  <si>
-    <t>MAHSEAMLES</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>MAJESCO</t>
-  </si>
-  <si>
-    <t>MALUPAPER</t>
-  </si>
-  <si>
-    <t>MAN50ETF</t>
-  </si>
-  <si>
-    <t>MANAKALUCO</t>
-  </si>
-  <si>
-    <t>MANAKCOAT</t>
-  </si>
-  <si>
-    <t>MANAKSIA</t>
-  </si>
-  <si>
-    <t>MANAKSTEEL</t>
-  </si>
-  <si>
-    <t>MANALIPETC</t>
-  </si>
-  <si>
-    <t>MANGCHEFER</t>
-  </si>
-  <si>
-    <t>MANPASAND</t>
-  </si>
-  <si>
-    <t>MANUGRAPH</t>
-  </si>
-  <si>
-    <t>MARALOVER</t>
-  </si>
-  <si>
-    <t>MARATHON</t>
-  </si>
-  <si>
-    <t>MARKSANS</t>
-  </si>
-  <si>
-    <t>MASFIN</t>
-  </si>
-  <si>
-    <t>MASTEK</t>
-  </si>
-  <si>
-    <t>MATRIMONY</t>
-  </si>
-  <si>
-    <t>MAWANASUG</t>
-  </si>
-  <si>
-    <t>MAXINDIA</t>
-  </si>
-  <si>
-    <t>MAXVIL</t>
-  </si>
-  <si>
-    <t>MAYURUNIQ</t>
-  </si>
-  <si>
-    <t>MAZDA</t>
-  </si>
-  <si>
-    <t>MBLINFRA</t>
-  </si>
-  <si>
-    <t>MCDHOLDING</t>
-  </si>
-  <si>
-    <t>MEGASOFT</t>
-  </si>
-  <si>
-    <t>MEGH</t>
-  </si>
-  <si>
-    <t>MENONBE</t>
-  </si>
-  <si>
-    <t>MEP</t>
-  </si>
-  <si>
-    <t>MERCATOR</t>
-  </si>
-  <si>
-    <t>MERCK</t>
-  </si>
-  <si>
-    <t>METALFORGE</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>MIDHANI</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>MINDAIND</t>
-  </si>
-  <si>
-    <t>MINDTECK</t>
-  </si>
-  <si>
-    <t>MIRCELECTR</t>
-  </si>
-  <si>
-    <t>MIRZAINT</t>
-  </si>
-  <si>
-    <t>MMFL</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>MOHITIND</t>
-  </si>
-  <si>
-    <t>MOHOTAIND</t>
-  </si>
-  <si>
-    <t>MOIL</t>
-  </si>
-  <si>
-    <t>MOLDTECH</t>
-  </si>
-  <si>
-    <t>MOLDTKPAC</t>
-  </si>
-  <si>
-    <t>MONSANTO</t>
-  </si>
-  <si>
-    <t>MONTECARLO</t>
-  </si>
-  <si>
-    <t>MORARJEE</t>
-  </si>
-  <si>
-    <t>MOREPENLAB</t>
-  </si>
-  <si>
-    <t>MOTILALOFS</t>
-  </si>
-  <si>
-    <t>MPSLTD</t>
-  </si>
-  <si>
-    <t>MSPL</t>
-  </si>
-  <si>
-    <t>MSTCLTD</t>
-  </si>
-  <si>
-    <t>MTEDUCARE</t>
-  </si>
-  <si>
-    <t>MTNL</t>
-  </si>
-  <si>
-    <t>NAGAROIL</t>
-  </si>
-  <si>
-    <t>NAHARINDUS</t>
-  </si>
-  <si>
-    <t>NAHARPOLY</t>
-  </si>
-  <si>
-    <t>NAHARSPING</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>NATHBIOGEN</t>
-  </si>
-  <si>
-    <t>NATNLSTEEL</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>NAVKARCORP</t>
-  </si>
-  <si>
-    <t>NAVNETEDUL</t>
-  </si>
-  <si>
-    <t>NBIFIN</t>
-  </si>
-  <si>
-    <t>NBVENTURES</t>
-  </si>
-  <si>
-    <t>NCLIND</t>
-  </si>
-  <si>
-    <t>NDGL</t>
-  </si>
-  <si>
-    <t>NDL</t>
-  </si>
-  <si>
-    <t>NDTV</t>
-  </si>
-  <si>
-    <t>NECCLTD</t>
-  </si>
-  <si>
-    <t>NECLIFE</t>
-  </si>
-  <si>
-    <t>NELCAST</t>
-  </si>
-  <si>
-    <t>NELCO</t>
-  </si>
-  <si>
-    <t>NEOGEN</t>
-  </si>
-  <si>
-    <t>NESCO</t>
-  </si>
-  <si>
-    <t>NETF</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>NEULANDLAB</t>
-  </si>
-  <si>
-    <t>NEWGEN</t>
-  </si>
-  <si>
-    <t>NEXTMEDIA</t>
-  </si>
-  <si>
-    <t>NIACL</t>
-  </si>
-  <si>
-    <t>NIBL</t>
-  </si>
-  <si>
-    <t>NIFTYBEES</t>
-  </si>
-  <si>
-    <t>NIFTYEES</t>
-  </si>
-  <si>
-    <t>NIITLTD</t>
-  </si>
-  <si>
-    <t>NILAINFRA</t>
-  </si>
-  <si>
-    <t>NILASPACES</t>
-  </si>
-  <si>
-    <t>NILKAMAL</t>
-  </si>
-  <si>
-    <t>NIPPOBATRY</t>
-  </si>
-  <si>
-    <t>NITESHEST</t>
-  </si>
-  <si>
-    <t>NITINFIRE</t>
-  </si>
-  <si>
-    <t>NITINSPIN</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>NOCIL</t>
-  </si>
-  <si>
-    <t>NOIDATOLL</t>
-  </si>
-  <si>
-    <t>NORBTEAEXP</t>
-  </si>
-  <si>
-    <t>NRAIL</t>
-  </si>
-  <si>
-    <t>NRBBEARING</t>
-  </si>
-  <si>
-    <t>NSIL</t>
-  </si>
-  <si>
-    <t>OILCOUNTUB</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>OMAXAUTO</t>
-  </si>
-  <si>
-    <t>OMAXE</t>
-  </si>
-  <si>
-    <t>OMKARCHEM</t>
-  </si>
-  <si>
-    <t>OMMETALS</t>
-  </si>
-  <si>
-    <t>ONELIFECAP</t>
-  </si>
-  <si>
-    <t>ONEPOINT</t>
-  </si>
-  <si>
-    <t>ONMOBILE</t>
-  </si>
-  <si>
-    <t>ONWARDTEC</t>
-  </si>
-  <si>
-    <t>OPTIEMUS</t>
-  </si>
-  <si>
-    <t>OPTOCIRCUI</t>
-  </si>
-  <si>
-    <t>ORBTEXP</t>
-  </si>
-  <si>
-    <t>ORICONENT</t>
-  </si>
-  <si>
-    <t>ORIENTABRA</t>
-  </si>
-  <si>
-    <t>ORIENTALTL</t>
-  </si>
-  <si>
-    <t>ORIENTBELL</t>
-  </si>
-  <si>
-    <t>ORIENTCEM</t>
-  </si>
-  <si>
-    <t>ORIENTELEC</t>
-  </si>
-  <si>
-    <t>ORIENTHOT</t>
-  </si>
-  <si>
-    <t>ORIENTLTD</t>
-  </si>
-  <si>
-    <t>ORIENTPPR</t>
-  </si>
-  <si>
-    <t>ORIENTREF</t>
-  </si>
-  <si>
-    <t>ORISSAMINE</t>
-  </si>
-  <si>
-    <t>ORTINLABSS</t>
-  </si>
-  <si>
-    <t>OSWALAGRO</t>
-  </si>
-  <si>
-    <t>PAEL</t>
-  </si>
-  <si>
-    <t>PAISALO</t>
-  </si>
-  <si>
-    <t>PALASHSECU</t>
-  </si>
-  <si>
-    <t>PAPERPROD</t>
-  </si>
-  <si>
-    <t>PARACABLES</t>
-  </si>
-  <si>
-    <t>PARAGMILK</t>
-  </si>
-  <si>
-    <t>PARSVNATH</t>
-  </si>
-  <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>PATINTLOG</t>
-  </si>
-  <si>
-    <t>PATSPINLTD</t>
-  </si>
-  <si>
-    <t>PDMJEPAPER</t>
-  </si>
-  <si>
-    <t>PDPL</t>
-  </si>
-  <si>
-    <t>PDSMFL</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>PENINLAND</t>
-  </si>
-  <si>
-    <t>PENPEBS</t>
-  </si>
-  <si>
-    <t>PERSISTENT</t>
-  </si>
-  <si>
-    <t>PFIZER</t>
-  </si>
-  <si>
-    <t>PFOCUS</t>
-  </si>
-  <si>
-    <t>PFS</t>
-  </si>
-  <si>
-    <t>PGEL</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>PGIL</t>
-  </si>
-  <si>
-    <t>PHILIPCARB</t>
-  </si>
-  <si>
-    <t>PHOENIXLTD</t>
-  </si>
-  <si>
-    <t>PILANIINVS</t>
-  </si>
-  <si>
-    <t>PILITA</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>PRECAM</t>
-  </si>
-  <si>
-    <t>PRECOT</t>
-  </si>
-  <si>
-    <t>PRECWIRE</t>
-  </si>
-  <si>
-    <t>PREMEXPLN</t>
-  </si>
-  <si>
-    <t>PREMIERPOL</t>
-  </si>
-  <si>
-    <t>PRESSMN</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>PRICOLLTD</t>
-  </si>
-  <si>
-    <t>PRIMESECU</t>
-  </si>
-  <si>
-    <t>PROSEED</t>
-  </si>
-  <si>
-    <t>PROZONINTU</t>
-  </si>
-  <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
-    <t>PSB</t>
-  </si>
-  <si>
-    <t>PSL</t>
-  </si>
-  <si>
-    <t>PSPPROJECT</t>
-  </si>
-  <si>
-    <t>PSUBNKBEES</t>
-  </si>
-  <si>
-    <t>QUINTEGRA</t>
-  </si>
-  <si>
-    <t>RADAAN</t>
-  </si>
-  <si>
-    <t>RAJSREESUG</t>
-  </si>
-  <si>
-    <t>RALLIS</t>
-  </si>
-  <si>
-    <t>RAMANEWS</t>
-  </si>
-  <si>
-    <t>RAMASTEEL</t>
-  </si>
-  <si>
-    <t>RAMCOIND</t>
-  </si>
-  <si>
-    <t>RAMCOSYS</t>
-  </si>
-  <si>
-    <t>RAMKY</t>
-  </si>
-  <si>
-    <t>RANASUG</t>
-  </si>
-  <si>
-    <t>RANEENGINE</t>
-  </si>
-  <si>
-    <t>RANEHOLDIN</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>RCF</t>
-  </si>
-  <si>
-    <t>RCOM</t>
-  </si>
-  <si>
-    <t>REDINGTON</t>
-  </si>
-  <si>
-    <t>RELAXO</t>
-  </si>
-  <si>
-    <t>RELCNX100</t>
-  </si>
-  <si>
-    <t>RELCONS</t>
-  </si>
-  <si>
-    <t>RELDIVOPP</t>
-  </si>
-  <si>
-    <t>RELIGARE</t>
-  </si>
-  <si>
-    <t>RELNV20</t>
-  </si>
-  <si>
-    <t>REMSONSIND</t>
-  </si>
-  <si>
-    <t>RENUKA</t>
-  </si>
-  <si>
-    <t>REPRO</t>
-  </si>
-  <si>
-    <t>RESPONIND</t>
-  </si>
-  <si>
-    <t>RETFMID150</t>
-  </si>
-  <si>
-    <t>REVATHI</t>
-  </si>
-  <si>
-    <t>RGL</t>
-  </si>
-  <si>
-    <t>RHFL</t>
-  </si>
-  <si>
-    <t>RICOAUTO</t>
-  </si>
-  <si>
-    <t>RIIL</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>RML</t>
-  </si>
-  <si>
-    <t>RNAM</t>
-  </si>
-  <si>
-    <t>RNAVAL</t>
-  </si>
-  <si>
-    <t>ROHLTD</t>
-  </si>
-  <si>
-    <t>ROLLT</t>
-  </si>
-  <si>
-    <t>ROSSELLIND</t>
-  </si>
-  <si>
-    <t>RPGLIFE</t>
-  </si>
-  <si>
-    <t>RPPINFRA</t>
-  </si>
-  <si>
-    <t>RRSLGETF</t>
-  </si>
-  <si>
-    <t>RSSOFTWARE</t>
-  </si>
-  <si>
-    <t>RSWM</t>
-  </si>
-  <si>
-    <t>RSYSTEMS</t>
-  </si>
-  <si>
-    <t>RTNINFRA</t>
-  </si>
-  <si>
-    <t>RTNPOWER</t>
-  </si>
-  <si>
-    <t>RUBYMILLS</t>
-  </si>
-  <si>
-    <t>RUCHIRA</t>
-  </si>
-  <si>
-    <t>RUPA</t>
-  </si>
-  <si>
-    <t>RUSHIL</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>SABEVENTS</t>
-  </si>
-  <si>
-    <t>SADBHAV</t>
-  </si>
-  <si>
-    <t>SADBHIN</t>
-  </si>
-  <si>
-    <t>SAGCEM</t>
-  </si>
-  <si>
-    <t>SAKAR</t>
-  </si>
-  <si>
-    <t>SAKSOFT</t>
-  </si>
-  <si>
-    <t>SAKUMA</t>
-  </si>
-  <si>
-    <t>SALASAR</t>
-  </si>
-  <si>
-    <t>SALONA</t>
-  </si>
-  <si>
-    <t>SALZERELEC</t>
-  </si>
-  <si>
-    <t>SAMBHAAV</t>
-  </si>
-  <si>
-    <t>SANCO</t>
-  </si>
-  <si>
-    <t>SANDESH</t>
-  </si>
-  <si>
-    <t>SANDHAR</t>
-  </si>
-  <si>
-    <t>SANGAMIND</t>
-  </si>
-  <si>
-    <t>SANGHIIND</t>
-  </si>
-  <si>
-    <t>SANGHVIFOR</t>
-  </si>
-  <si>
-    <t>SANGHVIMOV</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>SANWARIA</t>
-  </si>
-  <si>
-    <t>SAREGAMA</t>
-  </si>
-  <si>
-    <t>SARLAPOLY</t>
-  </si>
-  <si>
-    <t>SASKEN</t>
-  </si>
-  <si>
-    <t>SASTASUNDR</t>
-  </si>
-  <si>
-    <t>SATHAISPAT</t>
-  </si>
-  <si>
-    <t>SBILIFE</t>
-  </si>
-  <si>
-    <t>SCHAEFFLER</t>
-  </si>
-  <si>
-    <t>SCHAND</t>
-  </si>
-  <si>
-    <t>SCHNEIDER</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>SDBL</t>
-  </si>
-  <si>
-    <t>SEAMECLTD</t>
-  </si>
-  <si>
-    <t>SELAN</t>
-  </si>
-  <si>
-    <t>SELMCL</t>
-  </si>
-  <si>
-    <t>SEPOWER</t>
-  </si>
-  <si>
-    <t>SEQUENT</t>
-  </si>
-  <si>
-    <t>SESHAPAPER</t>
-  </si>
-  <si>
-    <t>SETCO</t>
-  </si>
-  <si>
-    <t>SETF10GILT</t>
-  </si>
-  <si>
-    <t>SETFGOLD</t>
-  </si>
-  <si>
-    <t>SETFNIF50</t>
-  </si>
-  <si>
-    <t>SETFNIFBK</t>
-  </si>
-  <si>
-    <t>SETFNN50</t>
-  </si>
-  <si>
-    <t>SFL</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C450"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3752,2974 +2942,1354 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A181" s="4"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A185" s="4"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A186" s="4"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A187" s="4"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A188" s="4"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A190" s="4"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A191" s="4"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A201" s="4"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A206" s="4"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A252" s="4"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A253" s="4"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A254" s="4"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A255" s="4"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A257" s="4"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A258" s="4"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A263" s="4"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A264" s="4"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A265" s="4"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A266" s="4"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A267" s="4"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A268" s="4"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A269" s="4"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A270" s="4"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A271" s="4"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A272" s="4"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A273" s="4"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A274" s="4"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A275" s="4"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A276" s="4"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A277" s="4"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A293" s="4"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A294" s="4"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A295" s="4"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A296" s="4"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A297" s="4"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A298" s="4"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A299" s="4"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A300" s="4"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A301" s="4"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A302" s="4"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A303" s="4"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A304" s="4"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A305" s="4"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A306" s="4"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A307" s="4"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A308" s="4"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A309" s="4"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A310" s="4"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A311" s="4"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A312" s="4"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A313" s="4"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A314" s="4"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A315" s="4"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A316" s="4"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A317" s="4"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A318" s="4"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A319" s="4"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A320" s="4"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A321" s="4"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A322" s="4"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A323" s="4"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A324" s="4"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A325" s="4"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A326" s="4"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A327" s="4"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A328" s="4"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A329" s="4"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A330" s="4"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A331" s="4"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A332" s="4"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A333" s="4"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A334" s="4"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A335" s="4"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A336" s="4"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A337" s="4"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A340" s="4"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A341" s="4"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A342" s="4"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A343" s="4"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A344" s="4"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A345" s="4"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A347" s="4"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A348" s="4"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A349" s="4"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A350" s="4"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A351" s="4"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A352" s="4"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A353" s="4"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A354" s="4"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A355" s="4"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A356" s="4"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A357" s="4"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A358" s="4"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A359" s="4"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A360" s="4"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A361" s="4"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A362" s="4"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A363" s="4"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A364" s="4"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B365" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A365" s="4"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A366" s="4"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B367" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A367" s="4"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A368" s="4"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A370" s="4"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A371" s="4"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A372" s="4"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A373" s="4"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A374" s="4"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A375" s="4"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A376" s="4"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B377" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A377" s="4"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A378" s="4"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="3"/>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A379" s="4"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A380" s="4"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A381" s="4"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A382" s="4"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A383" s="4"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A384" s="4"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A385" s="4"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A386" s="4"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A387" s="4"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A388" s="4"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A389" s="4"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B390" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A390" s="4"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A391" s="4"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A392" s="4"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A393" s="4"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A394" s="4"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A395" s="4"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A396" s="4"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A397" s="4"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A398" s="4"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A399" s="4"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A400" s="4"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A401" s="4"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A402" s="4"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A403" s="4"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A404" s="4"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A405" s="4"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A406" s="4"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A407" s="4"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A408" s="4"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A409" s="4"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A410" s="4"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A411" s="4"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A412" s="4"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A413" s="4"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A414" s="4"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A415" s="4"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A416" s="4"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A417" s="4"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A418" s="4"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A419" s="4"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A420" s="4"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A421" s="4"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A422" s="4"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A423" s="4"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A424" s="4"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A425" s="4"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A426" s="4"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A427" s="4"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A428" s="4"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B429" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A429" s="4"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A430" s="4"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B431" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A431" s="4"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A432" s="4"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B433" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A433" s="4"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B434" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A434" s="4"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A435" s="4"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B436" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A436" s="4"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B437" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A437" s="4"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B438" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A438" s="4"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B439" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A439" s="4"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B440" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A440" s="4"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A441" s="4"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B442" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A442" s="4"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B443" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A443" s="4"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B444" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A444" s="4"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="3"/>
     </row>
     <row r="445" spans="1:3">
-      <c r="A445" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B445" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A445" s="4"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B446" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A446" s="4"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B447" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A447" s="4"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A448" s="4"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B449" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A449" s="4"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B450" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A450" s="4"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
